--- a/output/CodeSystem-CareTeamCategoryCS.xlsx
+++ b/output/CodeSystem-CareTeamCategoryCS.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-CareTeamCategoryCS.xlsx
+++ b/output/CodeSystem-CareTeamCategoryCS.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-CareTeamCategoryCS.xlsx
+++ b/output/CodeSystem-CareTeamCategoryCS.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
